--- a/doc/Bag-Report.xlsx
+++ b/doc/Bag-Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zadachi\Diplom2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zadachi\Diplom2\fmh_android_15_03_24\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487DE8B-F89A-438A-B7AB-7DCCAD1D5D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AF87B-0EC0-464D-9F44-2F4513C1CE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -102,39 +102,12 @@
     <t>8. Сохранение события</t>
   </si>
   <si>
-    <t>1. Открывается редактирование события</t>
-  </si>
-  <si>
-    <t>2. Категория выбирается</t>
-  </si>
-  <si>
-    <t>3. Поле заполняется</t>
-  </si>
-  <si>
-    <t>4. Дата ставится</t>
-  </si>
-  <si>
-    <t>5. Время ставится</t>
-  </si>
-  <si>
-    <t>6. Поле заполняется</t>
-  </si>
-  <si>
-    <t>2. Ввод в поле Титул 15 символов</t>
-  </si>
-  <si>
-    <t>2. Ввод в поле не осуществляется. Всплывает ошибка "Поле не должно содержать больше 14 символов"</t>
-  </si>
-  <si>
     <t>Приложение запущено, пользователь авторизован, событие создано, открыт раздел control panel в вкладке news</t>
   </si>
   <si>
     <t>1. Нажать на кнопку +</t>
   </si>
   <si>
-    <t>1. Открывается окно добавления события</t>
-  </si>
-  <si>
     <t>2. Выбор категории из списка</t>
   </si>
   <si>
@@ -147,18 +120,6 @@
     <t>3. Ввод 15 символов в поле Титул</t>
   </si>
   <si>
-    <t>5. Ввод в ручную времени</t>
-  </si>
-  <si>
-    <t>3. Всплывает ошибка "Поле не должно содержать больше 14 символов"</t>
-  </si>
-  <si>
-    <t>8. Событие сохраняется.</t>
-  </si>
-  <si>
-    <t>7. Приложение восстанавливается</t>
-  </si>
-  <si>
     <t>7. Отключить интернет. Через минуту снова включить</t>
   </si>
   <si>
@@ -186,33 +147,9 @@
     <t>Ошибка "Максимальное колличество символов - 14" не всплывает</t>
   </si>
   <si>
-    <t>3. Ввод в поле не осуществляется. Всплывает ошибка "Поле не должно содержать больше 150 символов"</t>
-  </si>
-  <si>
-    <t>3. Ввод в поле Описание 151 символов</t>
-  </si>
-  <si>
-    <t>2. Ошибка не всплывает</t>
-  </si>
-  <si>
-    <t>3. Ошибка не всплывает</t>
-  </si>
-  <si>
     <t>Создание события</t>
   </si>
   <si>
-    <t>6. Всплывает ошибка "Поле не должно содержать больше 150 символов"</t>
-  </si>
-  <si>
-    <t>6. Ввод 151 символов в поле Описание</t>
-  </si>
-  <si>
-    <t>Отсутствие верхних граничных значений в поле Титул и Описание при редактировании события</t>
-  </si>
-  <si>
-    <t>Отсутствие верхних граничных значений в поле Титул и Описание при создании события</t>
-  </si>
-  <si>
     <t>Отсутствует страница политики конфиденциальности</t>
   </si>
   <si>
@@ -255,18 +192,9 @@
     <t>1. Ввести логин и пароль</t>
   </si>
   <si>
-    <t>1. Данные заполняются</t>
-  </si>
-  <si>
     <t>2. Сменить на боковую ориентацию или повернуть телефон</t>
   </si>
   <si>
-    <t>2. Ориентация меняется, логин и пароль не сбрасываются.</t>
-  </si>
-  <si>
-    <t>2. Ориентация меняется, логин и пароль сбрасываются.</t>
-  </si>
-  <si>
     <t>В поле ввода логина появляется белая полоса, закрывающая вводимый текст.</t>
   </si>
   <si>
@@ -309,15 +237,9 @@
     <t xml:space="preserve">Кнопка “News” в меню навигации остается выделенной как активная </t>
   </si>
   <si>
-    <t>6. Ошибка не всплывает</t>
-  </si>
-  <si>
     <t>Разрыв и восстановление интернет-соединения во время создания новости приводит к потере данных и возврату к списку новостей</t>
   </si>
   <si>
-    <t>8. Событие не сохраняется. Происходит переход к списку новостей.</t>
-  </si>
-  <si>
     <t>https://icecream.me/090b1c0ac5afead3468921cf62e62884</t>
   </si>
   <si>
@@ -328,6 +250,36 @@
   </si>
   <si>
     <t>https://icecream.me/4e899e7cc677eac4a65aa034d0df0164</t>
+  </si>
+  <si>
+    <t>Ориентация меняется, логин и пароль не сбрасываются.</t>
+  </si>
+  <si>
+    <t>Ориентация меняется, логин и пароль сбрасываются.</t>
+  </si>
+  <si>
+    <t>Ввод в поле не осуществляется. Всплывает ошибка "Поле не должно содержать больше 150 символов"</t>
+  </si>
+  <si>
+    <t>Ошибка не всплывает</t>
+  </si>
+  <si>
+    <t>Отсутствие верхних граничных значений в поле Описание при редактировании события</t>
+  </si>
+  <si>
+    <t>2. Ввод в поле Описание 151 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отсутствие верхних граничных значений в поле Титул </t>
+  </si>
+  <si>
+    <t>Всплывает ошибка "Поле не должно содержать больше 14 символов"</t>
+  </si>
+  <si>
+    <t>Событие сохраняется.</t>
+  </si>
+  <si>
+    <t>Событие не сохраняется. Происходит переход к списку новостей.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -517,6 +469,36 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -526,47 +508,53 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,453 +884,487 @@
         <v>6</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="31" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>6</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>7</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="14" t="s">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="B15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>10</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>12</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>7</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="G21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>9</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>8</v>
@@ -1351,169 +1373,103 @@
         <v>11</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>10</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>14</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>11</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>12</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="26" t="s">
+      <c r="F23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>14</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>35</v>
-      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="25"/>
     </row>
     <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1523,139 +1479,75 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="26" t="s">
-        <v>26</v>
-      </c>
+      <c r="G28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="25"/>
     </row>
-    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>27</v>
-      </c>
+      <c r="G29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="25"/>
     </row>
-    <row r="30" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>28</v>
-      </c>
+      <c r="G30" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="25"/>
-    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="C27:C34"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E27:E34"/>
-    <mergeCell ref="F27:F34"/>
+  <mergeCells count="69">
+    <mergeCell ref="J23:J30"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="I23:I30"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="F23:F30"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="A5:A6"/>
@@ -1670,48 +1562,37 @@
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J16:J21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="J27:J34"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{A380E197-5054-42CF-BB5E-3FE695379486}"/>
-    <hyperlink ref="J25" r:id="rId2" xr:uid="{18678D10-F0D3-4C5A-9A85-193B0D8272E8}"/>
-    <hyperlink ref="J26" r:id="rId3" xr:uid="{C2E17AB2-6369-4783-B74B-510015CC9508}"/>
-    <hyperlink ref="J24" r:id="rId4" xr:uid="{81EA035F-9CE2-4C85-9114-3E374B5C7388}"/>
-    <hyperlink ref="J22" r:id="rId5" xr:uid="{BE870E4D-516B-47D7-B73B-0ED0159484A0}"/>
-    <hyperlink ref="J23" r:id="rId6" xr:uid="{28B98B29-D508-4F01-9D17-13BE5876B4DE}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{A380E197-5054-42CF-BB5E-3FE695379486}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{18678D10-F0D3-4C5A-9A85-193B0D8272E8}"/>
+    <hyperlink ref="J22" r:id="rId3" xr:uid="{C2E17AB2-6369-4783-B74B-510015CC9508}"/>
+    <hyperlink ref="J20" r:id="rId4" xr:uid="{81EA035F-9CE2-4C85-9114-3E374B5C7388}"/>
+    <hyperlink ref="J18" r:id="rId5" xr:uid="{BE870E4D-516B-47D7-B73B-0ED0159484A0}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{28B98B29-D508-4F01-9D17-13BE5876B4DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
